--- a/otchet_primer.xlsx
+++ b/otchet_primer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -329,15 +329,6 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -346,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -357,33 +345,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,15 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,433 +714,433 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="13"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="13"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="13"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="13"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A5:B31"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A1:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
